--- a/example_data/EPA/label_corrected/070506-00247-20150220_2019-06-28_204518.xlsx
+++ b/example_data/EPA/label_corrected/070506-00247-20150220_2019-06-28_204518.xlsx
@@ -597,7 +597,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>135_Product_Information</t>
+          <t>135_product_information</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
@@ -624,7 +624,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>135_Product_Information</t>
+          <t>135_product_information</t>
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
@@ -651,7 +651,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>135_Product_Information</t>
+          <t>135_product_information</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
@@ -1044,7 +1044,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>18_Hazards_to_Humans_and_Domestic_Animals</t>
+          <t>18_hazards_to_humans_and_domestic_animals</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
@@ -1072,7 +1072,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>PPE</t>
+          <t>ppe</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
@@ -1103,7 +1103,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>PPE</t>
+          <t>ppe</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
@@ -1131,7 +1131,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>PPE</t>
+          <t>ppe</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Env warning - species || Env warning - water || Application instructions || Off Target Movement</t>
+          <t>off target movement || application instructions || env warning - species || env warning - water</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
@@ -1355,7 +1355,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
@@ -1385,7 +1385,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>134_Non-agriculture_Use_Requirements</t>
+          <t>134_non-agriculture_use_requirements</t>
         </is>
       </c>
       <c r="G35" t="inlineStr"/>
@@ -1412,7 +1412,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>134_Non-agriculture_Use_Requirements</t>
+          <t>134_non-agriculture_use_requirements</t>
         </is>
       </c>
       <c r="G36" t="inlineStr"/>
@@ -1467,7 +1467,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>93_Referral_Statement || Chemigation</t>
+          <t>93_referral_statement || chemigation</t>
         </is>
       </c>
       <c r="G38" t="inlineStr"/>
@@ -1670,7 +1670,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
@@ -1700,7 +1700,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Off Target Movement || 172_Sensitive_Areas</t>
+          <t>172_sensitive_areas || off target movement</t>
         </is>
       </c>
       <c r="G46" t="inlineStr"/>
@@ -1733,7 +1733,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G48" t="inlineStr"/>
@@ -1801,7 +1801,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G49" t="inlineStr"/>
@@ -1842,7 +1842,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G50" t="inlineStr"/>
@@ -1899,7 +1899,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G52" t="inlineStr"/>
@@ -2285,7 +2285,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G68" t="inlineStr"/>
@@ -2387,7 +2387,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G72" t="inlineStr"/>
@@ -2415,7 +2415,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G73" t="inlineStr"/>
@@ -2446,7 +2446,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G74" t="inlineStr"/>
@@ -2832,7 +2832,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G90" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G91" t="inlineStr"/>
@@ -2888,7 +2888,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G92" t="inlineStr"/>
@@ -3309,7 +3309,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G109" t="inlineStr"/>
@@ -3800,7 +3800,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G128" t="inlineStr"/>
@@ -3829,7 +3829,7 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G129" t="inlineStr"/>
@@ -4165,7 +4165,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G143" t="inlineStr"/>
@@ -5394,7 +5394,7 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G192" t="inlineStr"/>
@@ -5880,7 +5880,7 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G212" t="inlineStr"/>
@@ -5908,7 +5908,7 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G213" t="inlineStr"/>
@@ -5936,7 +5936,7 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G214" t="inlineStr"/>
@@ -5989,7 +5989,7 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G216" t="inlineStr"/>
@@ -6571,7 +6571,7 @@
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G240" t="inlineStr"/>
@@ -7545,7 +7545,7 @@
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G280" t="inlineStr"/>
@@ -7991,7 +7991,7 @@
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G298" t="inlineStr"/>
@@ -8351,7 +8351,7 @@
       </c>
       <c r="F313" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G313" t="inlineStr"/>
@@ -8740,7 +8740,7 @@
       </c>
       <c r="F329" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G329" t="inlineStr"/>
@@ -9237,7 +9237,7 @@
       </c>
       <c r="F349" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G349" t="inlineStr"/>
@@ -9265,7 +9265,7 @@
       </c>
       <c r="F350" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G350" t="inlineStr"/>
@@ -9347,7 +9347,7 @@
       </c>
       <c r="F353" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G353" t="inlineStr"/>
@@ -9414,7 +9414,7 @@
       </c>
       <c r="F355" t="inlineStr">
         <is>
-          <t>Mixing || Application Instructions</t>
+          <t>mixing || application instructions</t>
         </is>
       </c>
       <c r="G355" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
       </c>
       <c r="F358" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G358" t="inlineStr"/>
@@ -10011,7 +10011,7 @@
       </c>
       <c r="F379" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G379" t="inlineStr"/>
@@ -10494,7 +10494,7 @@
       </c>
       <c r="F399" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G399" t="inlineStr"/>
@@ -10522,7 +10522,7 @@
       </c>
       <c r="F400" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G400" t="inlineStr"/>
@@ -10835,7 +10835,7 @@
       </c>
       <c r="F413" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G413" t="inlineStr"/>
@@ -11674,7 +11674,7 @@
       </c>
       <c r="F448" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G448" t="inlineStr"/>
@@ -11701,7 +11701,7 @@
       </c>
       <c r="F449" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G449" t="inlineStr"/>
@@ -11729,7 +11729,7 @@
       </c>
       <c r="F450" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G450" t="inlineStr"/>
@@ -11759,7 +11759,7 @@
       </c>
       <c r="F451" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G451" t="inlineStr"/>
@@ -11860,7 +11860,7 @@
       </c>
       <c r="F455" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G455" t="inlineStr"/>
@@ -12199,7 +12199,7 @@
       </c>
       <c r="F467" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G467" t="inlineStr"/>
@@ -12259,7 +12259,7 @@
       </c>
       <c r="F469" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G469" t="inlineStr"/>
@@ -12294,7 +12294,7 @@
       </c>
       <c r="F470" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G470" t="inlineStr"/>
@@ -12329,7 +12329,7 @@
       </c>
       <c r="F471" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G471" t="inlineStr"/>
@@ -13435,7 +13435,7 @@
       </c>
       <c r="F511" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G511" t="inlineStr"/>
@@ -13475,7 +13475,7 @@
       </c>
       <c r="F512" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G512" t="inlineStr"/>
@@ -13646,7 +13646,7 @@
       </c>
       <c r="F518" t="inlineStr">
         <is>
-          <t>Off Target Movement || 172_Sensitive_Areas</t>
+          <t>172_sensitive_areas || off target movement</t>
         </is>
       </c>
       <c r="G518" t="inlineStr"/>
@@ -14045,7 +14045,7 @@
       </c>
       <c r="F532" t="inlineStr">
         <is>
-          <t>154_Pesticide_Storage</t>
+          <t>154_pesticide_storage</t>
         </is>
       </c>
       <c r="G532" t="inlineStr"/>
